--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2064755.876534031</v>
+        <v>2062868.295017629</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>140.2067433295009</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>97.6352909288865</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>63.57678144609342</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -838,7 +838,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>151.3440867889382</v>
+        <v>148.0435066463853</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,7 +1066,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>36.55138598916491</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>203.6154403134047</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>155.211488636581</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>40.99653269112405</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417131</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>176.9527187969217</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>18.39835365990041</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>158.5357677728078</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>78.84012649541629</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>149.8393745537518</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>139.153727875004</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002174</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>169.2784111612322</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750031</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>285.4831987633031</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0.3281211140995879</v>
       </c>
       <c r="C31" t="n">
-        <v>57.41378701535036</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>93.41221638965528</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>91.2307060180121</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571485</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523565</v>
+        <v>54.76109577523573</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274074</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287482</v>
       </c>
       <c r="U34" t="n">
         <v>218.1054622689367</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.5099885583422</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C2" t="n">
-        <v>159.5099885583422</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D2" t="n">
-        <v>159.5099885583422</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E2" t="n">
-        <v>159.5099885583422</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>152.5644878091387</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4437,13 +4437,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4471,19 +4471,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>663.9100130487641</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508537</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>955.5060781830496</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C5" t="n">
-        <v>586.5435612426379</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358874</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2544.276276079901</v>
+        <v>2492.581505946306</v>
       </c>
       <c r="T5" t="n">
-        <v>2325.641609051964</v>
+        <v>2492.581505946306</v>
       </c>
       <c r="U5" t="n">
-        <v>2071.879823690055</v>
+        <v>2492.581505946306</v>
       </c>
       <c r="V5" t="n">
-        <v>2071.879823690055</v>
+        <v>2492.581505946306</v>
       </c>
       <c r="W5" t="n">
-        <v>1719.111168419941</v>
+        <v>2492.581505946306</v>
       </c>
       <c r="X5" t="n">
-        <v>1345.645410158861</v>
+        <v>2119.115747685226</v>
       </c>
       <c r="Y5" t="n">
-        <v>955.5060781830496</v>
+        <v>2119.115747685226</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1937.083492693021</v>
+        <v>2001.758776122686</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.120975752609</v>
+        <v>1632.796259182274</v>
       </c>
       <c r="D8" t="n">
-        <v>1209.855277145859</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>824.0670245476144</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>413.0811197580069</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y8" t="n">
-        <v>2323.683332757143</v>
+        <v>2388.358616186807</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>210.7222632714564</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5954256477204</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>400.6823320653273</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>400.6823320653273</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>231.6825318036597</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>210.7222632714564</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>210.7222632714564</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.6944526764912</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>505.7582697485844</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1320.176150561012</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227918</v>
+        <v>1031.04751177457</v>
       </c>
       <c r="V13" t="n">
-        <v>874.9271131227918</v>
+        <v>776.3630235686834</v>
       </c>
       <c r="W13" t="n">
-        <v>856.3429175067309</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="X13" t="n">
-        <v>856.3429175067309</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y13" t="n">
-        <v>856.3429175067309</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5273,55 +5273,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>566.6879222525852</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C16" t="n">
-        <v>397.7517393246783</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123425</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1338.77913139345</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1338.77913139345</v>
+        <v>1108.284665625769</v>
       </c>
       <c r="U16" t="n">
-        <v>1338.77913139345</v>
+        <v>1108.284665625769</v>
       </c>
       <c r="V16" t="n">
-        <v>1084.094643187563</v>
+        <v>853.6001774198821</v>
       </c>
       <c r="W16" t="n">
-        <v>794.6774731506025</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="X16" t="n">
-        <v>566.6879222525852</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="Y16" t="n">
-        <v>566.6879222525852</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977054</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>674.9958217162123</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>786.082206476519</v>
       </c>
       <c r="V19" t="n">
-        <v>1275.130855347408</v>
+        <v>531.3977182706321</v>
       </c>
       <c r="W19" t="n">
-        <v>1123.77795175776</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>895.7884008597424</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>674.9958217162123</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,67 +5735,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>755.1831334811263</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>237.7764125461485</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>237.7764125461485</v>
       </c>
     </row>
     <row r="23">
@@ -5966,43 +5966,43 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6011,22 +6011,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1016.932862933025</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U25" t="n">
-        <v>727.8042241465831</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V25" t="n">
-        <v>473.1197359406963</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W25" t="n">
-        <v>473.1197359406963</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6218,13 +6218,13 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514082</v>
@@ -6242,10 +6242,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727881</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727881</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727881</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1210.549403120222</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>955.8649149143356</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>955.8649149143356</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>727.8753640163183</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727881</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6482,10 +6482,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163788</v>
+        <v>565.0885940342997</v>
       </c>
       <c r="C31" t="n">
-        <v>546.5704195584491</v>
+        <v>451.9132763877636</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2146454274842</v>
+        <v>357.5575022567986</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264619</v>
+        <v>265.4052739557763</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>265.4052739557763</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6640,7 +6640,7 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981894</v>
+        <v>902.6804289818934</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652476</v>
+        <v>730.4517433652468</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652476</v>
+        <v>565.4200295030872</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6719,25 +6719,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6938,16 +6938,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6962,25 +6962,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,19 +7093,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,73 +7151,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,7 +7363,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7552,7 +7552,7 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,10 +7600,10 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
@@ -7634,7 +7634,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103127</v>
@@ -7804,10 +7804,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,16 +9246,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>44.59484226146756</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>268.1246446766906</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>39.3850422107954</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>142.707434562973</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>136.6836237828392</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>40.6782523069333</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338605</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>52.26914989715709</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338605</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.7541536352742219</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.3006024392806</v>
       </c>
       <c r="C31" t="n">
-        <v>54.62977745472033</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>90.21779139437417</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897906</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>867392.8693883915</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>867392.8693883913</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>867392.8693883914</v>
+        <v>867392.8693883913</v>
       </c>
     </row>
     <row r="9">
@@ -26314,28 +26314,28 @@
         <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117848</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="F2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="G2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="H2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="I2" t="n">
         <v>508337.7776590214</v>
       </c>
-      <c r="G2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>508337.7776590215</v>
-      </c>
-      <c r="I2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="J2" t="n">
-        <v>508337.7776590214</v>
       </c>
       <c r="K2" t="n">
         <v>528868.7785488518</v>
@@ -26344,10 +26344,10 @@
         <v>533677.1504117843</v>
       </c>
       <c r="M2" t="n">
+        <v>533677.1504117844</v>
+      </c>
+      <c r="N2" t="n">
         <v>533677.1504117843</v>
-      </c>
-      <c r="N2" t="n">
-        <v>533677.1504117844</v>
       </c>
       <c r="O2" t="n">
         <v>533677.1504117844</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284566</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086683</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284573</v>
+        <v>44162.60530284568</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007409</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007416</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007458</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007465</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7916.731656007525</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007496</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007503</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007498</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020405</v>
+        <v>26081.35417020402</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732799</v>
+        <v>30335.51889732793</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732798</v>
       </c>
       <c r="O4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="P4" t="n">
         <v>30335.51889732796</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26473,40 +26473,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26522,43 +26522,43 @@
         <v>-287066.8555820907</v>
       </c>
       <c r="C6" t="n">
+        <v>302901.023632454</v>
+      </c>
+      <c r="D6" t="n">
         <v>302901.0236324545</v>
       </c>
-      <c r="D6" t="n">
-        <v>302901.023632454</v>
-      </c>
       <c r="E6" t="n">
-        <v>-116726.3164225987</v>
+        <v>-116823.7755485709</v>
       </c>
       <c r="F6" t="n">
-        <v>408433.7200542972</v>
+        <v>408336.2609283254</v>
       </c>
       <c r="G6" t="n">
-        <v>408433.7200542975</v>
+        <v>408336.2609283252</v>
       </c>
       <c r="H6" t="n">
-        <v>408433.7200542974</v>
+        <v>408336.2609283252</v>
       </c>
       <c r="I6" t="n">
-        <v>408433.7200542974</v>
+        <v>408336.2609283251</v>
       </c>
       <c r="J6" t="n">
-        <v>232010.5008617043</v>
+        <v>231913.0417357325</v>
       </c>
       <c r="K6" t="n">
-        <v>361996.6105455793</v>
+        <v>361978.116807645</v>
       </c>
       <c r="L6" t="n">
         <v>395283.6188935641</v>
       </c>
       <c r="M6" t="n">
-        <v>270825.5104605938</v>
+        <v>270825.510460594</v>
       </c>
       <c r="N6" t="n">
-        <v>405626.525694431</v>
+        <v>405626.5256944309</v>
       </c>
       <c r="O6" t="n">
-        <v>405626.525694431</v>
+        <v>405626.5256944311</v>
       </c>
       <c r="P6" t="n">
         <v>361463.9203915854</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,25 +26738,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26793,13 +26793,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108353</v>
+        <v>12.92863350108358</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>241.7236267427609</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>316.1488790919085</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>82.85718120047575</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>23.07162602003334</v>
+        <v>26.3722061625862</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>318.131655631518</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>210.1687297073903</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,7 +27907,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>12.03533246204685</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>115.1743561506711</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1.631974555493798e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29290,10 +29290,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>621.6037559756874</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M15" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412259</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043182</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37719,7 +37719,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
